--- a/demo_service/src/main/resources/Tourist_locations.xlsx
+++ b/demo_service/src/main/resources/Tourist_locations.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tillu\Desktop\MACS\Term 2\Cloud Computing\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F26A190-F637-4059-8196-9A6A270E227A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D9DE92-1216-429C-BBE8-7407D662914D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{6CB8B98A-C566-41C5-99D9-38FCA1F18D4F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{6CB8B98A-C566-41C5-99D9-38FCA1F18D4F}"/>
   </bookViews>
   <sheets>
     <sheet name="TouristLocations" sheetId="1" r:id="rId1"/>
     <sheet name="DestinationAddress" sheetId="2" r:id="rId2"/>
-    <sheet name="LocationReview" sheetId="3" r:id="rId3"/>
-    <sheet name="LocationRatings" sheetId="4" r:id="rId4"/>
+    <sheet name="LocationRatings" sheetId="4" r:id="rId3"/>
+    <sheet name="CityAddress" sheetId="5" r:id="rId4"/>
+    <sheet name="LocationReview" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="147">
   <si>
     <t>Location Id</t>
   </si>
@@ -144,9 +145,6 @@
   </si>
   <si>
     <t>https://novascotia.ca/natr/parks/management/images/lakeshore2.jpg</t>
-  </si>
-  <si>
-    <t>City</t>
   </si>
   <si>
     <t>Province</t>
@@ -257,30 +255,264 @@
   <si>
     <t>A clean, welcoming groomed walking trail on the edge of Halifax. Accessible to strollers, walking, jogging, and biking, with lake access for swimming and non-motorized watercraft. Not too flat and boring, and not too technical.</t>
   </si>
+  <si>
+    <t>City_id</t>
+  </si>
+  <si>
+    <t>City_Name</t>
+  </si>
+  <si>
+    <t>Burlington</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>Ottawa</t>
+  </si>
+  <si>
+    <t>Salmon Arm</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>St. Albert</t>
+  </si>
+  <si>
+    <t>Alberta</t>
+  </si>
+  <si>
+    <t>Edmonton</t>
+  </si>
+  <si>
+    <t>Brantford</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t>Windsor</t>
+  </si>
+  <si>
+    <t>Brampton</t>
+  </si>
+  <si>
+    <t>City_ID</t>
+  </si>
+  <si>
+    <t>https://media-cdn.tripadvisor.com/media/photo-s/0f/f3/02/fb/a-mini-cave.jpg</t>
+  </si>
+  <si>
+    <t>These caves provided shelter for man more than 40,000 years ago.</t>
+  </si>
+  <si>
+    <t>Burlington Waterfront Trail</t>
+  </si>
+  <si>
+    <t>Lakeshore Road east and North Shore Blvd. West Lakeshore Road</t>
+  </si>
+  <si>
+    <t>Royal Botanical Gardens</t>
+  </si>
+  <si>
+    <t>Royal Botanical Gardens (RBG) is the largest botanical garden in Canada, a National Historic Site, and registered charitable organization with a mandate to bring together people, plants and nature. Royal Botanical Gardens is located at the western.</t>
+  </si>
+  <si>
+    <t>https://media-cdn.tripadvisor.com/media/photo-s/0f/69/d6/b7/royal-botanical-gardens.jpg</t>
+  </si>
+  <si>
+    <t>https://media-cdn.tripadvisor.com/media/photo-f/02/f6/ed/2f/parliament-buildings.jpg</t>
+  </si>
+  <si>
+    <t>Parliament Hill and Buildings</t>
+  </si>
+  <si>
+    <t>https://media-cdn.tripadvisor.com/media/photo-f/02/61/5e/48/filename-canadian-war.jpg</t>
+  </si>
+  <si>
+    <t>Canadian War Museum</t>
+  </si>
+  <si>
+    <t>Three Gothic Revival-style buildings, located on a 170-foot bluff overlooking the Ottawa River, house the offices of the members of Parliament, the House of Commons and the Senate</t>
+  </si>
+  <si>
+    <t>The Canadian War Museum is more than a museum that is internationally renowned for its symbolic architecture; it is synonym for inspiring and touching stories. Canada's rich military history is showcased through personal stories, artwork</t>
+  </si>
+  <si>
+    <t>111 Wellington St</t>
+  </si>
+  <si>
+    <t>1 Vimy Place</t>
+  </si>
+  <si>
+    <t>https://media-cdn.tripadvisor.com/media/photo-s/0e/32/15/73/shuswap-lake.jpg</t>
+  </si>
+  <si>
+    <t>https://media-cdn.tripadvisor.com/media/photo-s/0f/7b/4e/e9/photo0jpg.jpg</t>
+  </si>
+  <si>
+    <t>Shuswap Lake</t>
+  </si>
+  <si>
+    <t>It offers house-boating (mostly out of Sicamous), as well as resorts, campgrounds and motels/hotels, plus our incredible provincial parks with lovely beaches and affordable camping/RV sites.</t>
+  </si>
+  <si>
+    <t>Salmon Arm Wharf</t>
+  </si>
+  <si>
+    <t>781 Marine Park Dr NE, Salmon Arm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The wharf is a well known focal point of Salmon Arm's downtown and provides SHUSWAP Lake access for walkers, birders and visitors to Marine Park</t>
+  </si>
+  <si>
+    <t>https://media-cdn.tripadvisor.com/media/photo-s/0f/72/2f/6e/construction-recente.jpg</t>
+  </si>
+  <si>
+    <t>Welcome to the Canadian capital of the curds! Each year, the Cheese Coop produces enough cheese curds to fill 4 Olympic size pools</t>
+  </si>
+  <si>
+    <t>St-Albert Cheese Co-Op</t>
+  </si>
+  <si>
+    <t>150 St-Paul Street</t>
+  </si>
+  <si>
+    <t>West Edmonton Mall</t>
+  </si>
+  <si>
+    <t>8882 170th St</t>
+  </si>
+  <si>
+    <t>The world's largest shopping and entertainment complex, with a roller coaster, tropical rainforest and an indoor bungee jump, in addition to the over 800 stores and 20 restaurants.</t>
+  </si>
+  <si>
+    <t>https://media-cdn.tripadvisor.com/media/photo-s/10/26/a3/f7/photo9jpg.jpg</t>
+  </si>
+  <si>
+    <t>https://media-cdn.tripadvisor.com/media/photo-s/12/d7/34/1e/1920s-street-at-fort.jpg</t>
+  </si>
+  <si>
+    <t>Fort Edmonton Park</t>
+  </si>
+  <si>
+    <t>Park featuring recreations of Edmonton in different stages of its history.</t>
+  </si>
+  <si>
+    <t>On Whitemud Dr</t>
+  </si>
+  <si>
+    <t>https://media-cdn.tripadvisor.com/media/photo-s/09/f9/87/61/wayne-gretzky-sports.jpg</t>
+  </si>
+  <si>
+    <t>Wayne Gretzky Sports Centre</t>
+  </si>
+  <si>
+    <t>The Wayne Gretzky Sports Centre has been the primary sports and leisure facility of Brantford for over 50 years and is owned and operated by the City of Brantford</t>
+  </si>
+  <si>
+    <t>Bell Homestead</t>
+  </si>
+  <si>
+    <t>This was a very educational, informative site.They first showed us a little review film and then we toured the old house and office and were allowed to touch and enjoy the old phones.</t>
+  </si>
+  <si>
+    <t>https://media-cdn.tripadvisor.com/media/photo-s/13/2f/e0/eb/front-of-bell-homestead.jpg</t>
+  </si>
+  <si>
+    <t>Stanley Park</t>
+  </si>
+  <si>
+    <t>Stanley Park Causeway</t>
+  </si>
+  <si>
+    <t>Granville Island</t>
+  </si>
+  <si>
+    <t>Former industrial site has been transformed into an artsy, posh neighborhood with quaint shops, cafes and bookstores.</t>
+  </si>
+  <si>
+    <t>North America's third-largest park draws eight million visitors per year, many of whom may skate or walk past you on the Seawall, a scenic, 5.5-mile path running along the water on the park's perimeter</t>
+  </si>
+  <si>
+    <t>https://media-cdn.tripadvisor.com/media/photo-s/10/a6/09/5b/stanley-park-and-the.jpg</t>
+  </si>
+  <si>
+    <t>https://media-cdn.tripadvisor.com/media/photo-s/0b/f4/0f/5f/granville-island.jpg</t>
+  </si>
+  <si>
+    <t>https://media-cdn.tripadvisor.com/media/photo-s/0d/1a/b0/dd/20160925-153336-largejpg.jpg</t>
+  </si>
+  <si>
+    <t>Windsor Riverfront</t>
+  </si>
+  <si>
+    <t>While we were here we took a very nice stroll and saw beautiful sculptures in the sculpture garden, soccer being played, colorful foliage, and boats galore, from speed boats to huge barges going down the river.</t>
+  </si>
+  <si>
+    <t>Riverside Drive West,</t>
+  </si>
+  <si>
+    <t>Dieppe Gardens</t>
+  </si>
+  <si>
+    <t>Unspoiled view of the Detroit River- riverfront is truly Windsor ' s best gem! Love the unfettered view - beautiful plants, paving that aids total accessibility</t>
+  </si>
+  <si>
+    <t>Foot of Ouellette Avenue, on the banks of the Detroit River</t>
+  </si>
+  <si>
+    <t>https://media-cdn.tripadvisor.com/media/photo-s/03/d8/eb/9f/gage-park.jpg</t>
+  </si>
+  <si>
+    <t>https://media-cdn.tripadvisor.com/media/photo-s/09/62/a7/61/donald-m-gordon-chinguacousy.jpg</t>
+  </si>
+  <si>
+    <t>Gage Park</t>
+  </si>
+  <si>
+    <t>Gage Park and City Hall Downtown Brampton is an amazing night out for a stroll place at Christmas the lights are beautiful, you can skate in the park and just across the street </t>
+  </si>
+  <si>
+    <t>2 Wellington St W</t>
+  </si>
+  <si>
+    <t>Donald M. Gordon Chinguacousy Park</t>
+  </si>
+  <si>
+    <t>Awesome place to see the petting zoo, mini golf, park, water park, feed the ducks, walk through the park, picnic area.. awesome place for a cheap day out with the family</t>
+  </si>
+  <si>
+    <t>9050 Bramalea Rd</t>
+  </si>
+  <si>
+    <t>Williams St</t>
+  </si>
+  <si>
+    <t>89 Hollis Bay</t>
+  </si>
+  <si>
+    <t>Clayton St</t>
+  </si>
+  <si>
+    <t>Brampton 7899 Dr</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF2A2A2A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -313,7 +545,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF222222"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -345,49 +577,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E7FC03-A261-4903-A139-F6B00A92E3EE}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,49 +917,49 @@
     <col min="2" max="2" width="38.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="94.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="94.140625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>101</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>102</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -766,32 +968,32 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>103</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>43</v>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>104</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -800,15 +1002,15 @@
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>105</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -817,15 +1019,15 @@
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>106</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -834,15 +1036,15 @@
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>107</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -851,47 +1053,1073 @@
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>108</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>109</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>110</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>111</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>112</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>113</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>114</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>115</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>116</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>117</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>118</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>119</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>120</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>121</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>122</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>123</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>124</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>125</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>126</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" display="https://www.tripadvisor.ca/Attraction_Review-g155004-d155615-Reviews-Parliament_Hill_and_Buildings-Ottawa_Ontario.html" xr:uid="{0411EA57-9457-43AD-81EA-7AC362BBA5E2}"/>
+    <hyperlink ref="B14" r:id="rId2" display="https://www.tripadvisor.ca/Attraction_Review-g155004-d155458-Reviews-Canadian_War_Museum-Ottawa_Ontario.html" xr:uid="{E254663E-8F25-4F7C-8C34-B3F3C192914B}"/>
+    <hyperlink ref="E15" r:id="rId3" display="https://www.tripadvisor.ca/ShowUserReviews-g181773-d655016-r360075858-Shuswap_Lake-Salmon_Arm_British_Columbia.html" xr:uid="{7D176419-8EEA-4EEE-A5DC-485B0677B6FF}"/>
+    <hyperlink ref="E21" r:id="rId4" display="https://www.tripadvisor.ca/ShowUserReviews-g154983-d296634-r651908533-Bell_Homestead-Brantford_Ontario.html" xr:uid="{0E02DE44-B9CC-4483-8E35-C9183F7591C9}"/>
+    <hyperlink ref="E24" r:id="rId5" display="https://www.tripadvisor.ca/ShowUserReviews-g155021-d6370071-r526761406-Windsor_Riverfront-Windsor_Ontario.html" xr:uid="{009CA88F-3644-496C-9E1F-0A2A2CB38C8B}"/>
+    <hyperlink ref="E25" r:id="rId6" display="https://www.tripadvisor.ca/ShowUserReviews-g155021-d2102036-r707015185-Dieppe_Gardens-Windsor_Ontario.html" xr:uid="{F80C989E-63D3-4A1B-8F30-EE532D800D39}"/>
+    <hyperlink ref="E26" r:id="rId7" display="https://www.tripadvisor.ca/ShowUserReviews-g154982-d2535350-r638867206-Gage_Park-Brampton_Ontario.html" xr:uid="{0CF419D9-572B-47F2-BBFD-40670757C4BB}"/>
+    <hyperlink ref="E27" r:id="rId8" display="https://www.tripadvisor.ca/ShowUserReviews-g154982-d3427100-r474571657-Donald_M_Gordon_Chinguacousy_Park-Brampton_Ontario.html" xr:uid="{5E288BA5-EA74-401B-AF0E-D468EB69DAF4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097E78C8-7C63-40DC-9982-21F08F3C2987}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>102</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>103</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>104</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>105</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>106</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>107</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>108</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>109</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>110</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>111</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>112</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>113</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>114</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>115</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>116</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>117</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>118</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>119</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>120</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>121</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>122</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>123</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>124</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>125</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>126</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="1">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82176B38-CBA9-4CA4-9D9B-92FA2FBE78B1}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>101</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>102</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>103</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>104</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>105</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>106</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>107</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>108</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>109</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>110</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>111</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>112</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>113</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>114</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>115</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>116</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>117</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>118</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>119</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>120</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>121</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>122</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>123</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>124</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>125</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>126</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAC4EAD-8DB5-49F5-85AD-4CF53B226394}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>200</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>201</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>202</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>203</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>204</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>205</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>206</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>207</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>208</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>209</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -899,390 +2127,235 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097E78C8-7C63-40DC-9982-21F08F3C2987}">
-  <dimension ref="A1:E10"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AA018A-9111-4523-BBB3-D0DA92181595}">
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="10"/>
-    <col min="4" max="4" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="B1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>101</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>102</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>103</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>104</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>105</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>106</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="B7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>107</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>108</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>109</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AA018A-9111-4523-BBB3-D0DA92181595}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.140625" style="15" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>101</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>110</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>111</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>102</v>
-      </c>
-      <c r="B3" s="14" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>112</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>103</v>
-      </c>
-      <c r="B4" s="14" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>113</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>104</v>
-      </c>
-      <c r="B5" s="14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>114</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>105</v>
-      </c>
-      <c r="B6" s="14" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>115</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>106</v>
-      </c>
-      <c r="B7" s="14" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>116</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>107</v>
-      </c>
-      <c r="B8" s="14" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>117</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>108</v>
-      </c>
-      <c r="B9" s="14" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>118</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>109</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82176B38-CBA9-4CA4-9D9B-92FA2FBE78B1}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>119</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>101</v>
-      </c>
-      <c r="B2" s="15">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>102</v>
-      </c>
-      <c r="B3" s="15">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>103</v>
-      </c>
-      <c r="B4" s="15">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>104</v>
-      </c>
-      <c r="B5" s="15">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>105</v>
-      </c>
-      <c r="B6" s="15">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>106</v>
-      </c>
-      <c r="B7" s="15">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>107</v>
-      </c>
-      <c r="B8" s="15">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>108</v>
-      </c>
-      <c r="B9" s="15">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>109</v>
-      </c>
-      <c r="B10" s="15">
-        <v>4.5</v>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>120</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>121</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>122</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>123</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>124</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>125</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>126</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
